--- a/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>CONC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>39629</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>39538</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>39447</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -762,17 +768,20 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,17 +800,20 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,8 +907,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,19 +983,22 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,19 +1015,22 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,20 +1092,23 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,20 +1124,23 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1115,19 +1157,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1202,19 +1253,22 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-800</v>
       </c>
       <c r="J26" s="3">
         <v>-800</v>
       </c>
       <c r="K26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1231,19 +1285,22 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
       </c>
       <c r="J27" s="3">
         <v>-800</v>
       </c>
       <c r="K27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1405,19 +1477,22 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
       </c>
       <c r="K33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1463,53 +1541,59 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
       </c>
       <c r="K35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>39629</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>39538</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>39447</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2041,8 +2177,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2053,8 +2189,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2070,8 +2209,8 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2244,8 +2401,8 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
+      <c r="H66" s="3">
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2402,8 +2575,8 @@
       <c r="G72" s="3">
         <v>-32300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="H72" s="3">
+        <v>-32300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2518,8 +2703,8 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>39629</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>39538</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>39447</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2611,19 +2805,22 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
       </c>
       <c r="K81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2826,8 +3042,8 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2955,8 +3184,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3113,8 +3358,8 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>CONC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>39629</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>39538</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>39447</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,17 +785,23 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,17 +823,23 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -910,11 +950,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +1017,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,19 +1040,25 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,19 +1078,25 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,20 +1169,26 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1127,20 +1207,26 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,19 +1246,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1333,14 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1256,19 +1360,25 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,19 +1398,25 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1599,14 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1480,19 +1626,25 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1675,14 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1544,56 +1702,68 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>39629</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>39538</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>39447</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2390,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,8 +2428,14 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2180,11 +2454,11 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2192,8 +2466,14 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2212,11 +2492,11 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2694,14 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2404,11 +2720,11 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2900,14 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2578,11 +2926,11 @@
       <c r="H72" s="3">
         <v>-32300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-32300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +3052,14 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2706,11 +3078,11 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +3128,57 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>39629</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>39538</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>39447</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2808,19 +3198,25 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3045,11 +3479,11 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3187,11 +3647,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3361,11 +3853,11 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>CONC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>39629</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>39538</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>39447</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,17 +804,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,17 +848,23 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,11 +995,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,19 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,19 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,8 +1233,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1175,20 +1248,26 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1213,20 +1292,26 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1252,19 +1337,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1436,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1366,19 +1469,25 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1404,19 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1744,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1632,19 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1832,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1708,62 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>39629</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>39538</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>39447</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,8 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2460,11 +2733,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -2472,8 +2745,14 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2498,11 +2777,11 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +3009,14 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2726,11 +3041,11 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3247,14 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2932,11 +3279,11 @@
       <c r="J72" s="3">
         <v>-32300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-32300</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3423,14 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3084,11 +3455,11 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3511,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>39629</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>39538</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>39447</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3204,19 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3485,11 +3918,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3653,11 +4112,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3859,11 +4350,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>CONC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>39629</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39538</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39447</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,17 +824,23 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,17 +874,23 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +1003,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1001,11 +1041,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1105,19 +1159,25 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1149,19 +1209,25 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,16 +1290,22 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1239,8 +1313,8 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1254,20 +1328,26 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1298,20 +1378,26 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1343,19 +1429,25 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1540,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1475,19 +1579,25 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1519,19 +1629,25 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1890,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1783,19 +1929,25 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1990,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1871,68 +2029,80 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>39629</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39538</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39447</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2385,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2975,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2739,11 +3013,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2751,8 +3025,14 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2783,11 +3063,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3047,11 +3363,11 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3285,11 +3633,11 @@
       <c r="L72" s="3">
         <v>-32300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-32300</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3461,11 +3833,11 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3895,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>39629</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39538</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39447</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3599,19 +3989,25 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3924,11 +4358,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4118,11 +4578,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4356,11 +4848,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -4368,8 +4860,14 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CONC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>CONC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39629</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39538</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39447</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,17 +837,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,17 +890,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1047,8 +1067,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,19 +1192,22 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,19 +1245,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,14 +1347,14 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1334,20 +1371,23 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1384,20 +1424,23 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1435,19 +1478,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-800</v>
       </c>
       <c r="Q23" s="3">
         <v>-800</v>
       </c>
       <c r="R23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1585,19 +1637,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-800</v>
       </c>
       <c r="Q26" s="3">
         <v>-800</v>
       </c>
       <c r="R26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,19 +1690,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-800</v>
       </c>
       <c r="Q27" s="3">
         <v>-800</v>
       </c>
       <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1935,19 +2008,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-800</v>
       </c>
       <c r="Q33" s="3">
         <v>-800</v>
       </c>
       <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2035,74 +2114,80 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-800</v>
       </c>
       <c r="Q35" s="3">
         <v>-800</v>
       </c>
       <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39629</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39538</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39447</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,20 +3023,20 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3019,8 +3156,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3069,8 +3209,8 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3369,8 +3527,8 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3639,8 +3813,8 @@
       <c r="N72" s="3">
         <v>-32300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-32300</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3839,8 +4025,8 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39629</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39538</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39447</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39355</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3995,19 +4190,22 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-800</v>
       </c>
       <c r="Q81" s="3">
         <v>-800</v>
       </c>
       <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4364,8 +4581,8 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4584,8 +4814,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4854,8 +5100,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
